--- a/resources/demo.xlsx
+++ b/resources/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvinbernd/Projects/_nanook/demo-tdg/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvinbernd/Projects/_nanook/nanook-demo/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE8036-FDE9-3F41-8B52-E0B742F8A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD311D62-EE12-6B4F-82B9-70E34F9D3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7021D5A0-B210-F343-97E3-6B1F9FED1BC3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>&lt;DECISION_TABLE&gt;</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -627,9 +627,6 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
@@ -640,9 +637,6 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">

--- a/resources/demo.xlsx
+++ b/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvinbernd/Projects/_nanook/nanook-demo/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD311D62-EE12-6B4F-82B9-70E34F9D3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98865E21-447B-024D-909F-DB83B10E9F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7021D5A0-B210-F343-97E3-6B1F9FED1BC3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>&lt;DECISION_TABLE&gt;</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>password2</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7808EB59-9E98-2842-9D10-360721A4F370}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,10 +536,10 @@
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="1"/>
+    <col min="6" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -556,8 +559,11 @@
       <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -571,12 +577,15 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -590,8 +599,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -605,8 +615,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -619,8 +630,11 @@
       <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -628,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -639,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -653,8 +667,9 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -673,8 +688,11 @@
       <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -688,8 +706,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -708,8 +727,11 @@
       <c r="I11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -723,8 +745,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -743,8 +766,11 @@
       <c r="I13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -758,8 +784,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -776,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
@@ -786,8 +813,11 @@
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -799,6 +829,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
